--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1227349.418328502</v>
+        <v>1259927.632843702</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584667</v>
+        <v>460545.8926584668</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>185.0333587736945</v>
       </c>
       <c r="G2" t="n">
-        <v>218.2545356023572</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>18.33312173982672</v>
+        <v>136.8212204801193</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -1023,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>31.69844046683744</v>
+        <v>161.1908134018701</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>214.0077506398264</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5810588664028</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>9.818146839772025</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>116.6362207959817</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>44.7092878743151</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -1424,19 +1426,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.197900299766525</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>156.5819542946489</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>77.89329561273938</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>268.7418428881282</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.889549819912</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>24.64815776426666</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>77.61712774777742</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>77.41754251185411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>3.437846860843506</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.39716969355935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,19 +2165,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>47.97495438228758</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571424</v>
@@ -2254,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>43.03218749909109</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>10.54215419659351</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>165.5193880286265</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.2870929222108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28018995116467</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.2933908228036</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>50.15718953603344</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>210.74916448285</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>29.71469276969331</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>144.1648043931067</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
@@ -2713,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>75.15041125220502</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
     </row>
     <row r="29">
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
@@ -2849,16 +2851,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>324.6425901861103</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>13.39716969355935</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>138.1448796507991</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>101.5289465722275</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>53.40708194790164</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>67.77996586827835</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>66.97649427705969</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3120,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.456834824088546</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>120.206241369224</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>50.15718953603389</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>30.53482036979254</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>100.0350147249426</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>342.5876533544114</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,19 +3353,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>76.32943916025816</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>127.1081688162649</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>74.54211823523698</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.44663919424258</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -3551,25 +3553,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>131.0170222674674</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.39716969355935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>66.25503485839013</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
@@ -3633,13 +3635,13 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>92.96858446131027</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>84.54254454879647</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>33.85011121678342</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
@@ -3800,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>126.6553273111653</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>160.807298920142</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3879,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>86.16326343026775</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>162.3985825025964</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.1860399441541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>64.67353833650432</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>325.9622087118442</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.86305757675414</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4071,7 +4073,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -4107,13 +4109,13 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>67.26886741877343</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>187.9216174196137</v>
+        <v>26.85544949825411</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
-        <v>251.810259228364</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4358,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X2" t="n">
-        <v>738.7078125165641</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y2" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>466.9379658470897</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C3" t="n">
-        <v>466.9379658470897</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D3" t="n">
-        <v>318.0035561858384</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>945.5388507229325</v>
+        <v>825.8539025004147</v>
       </c>
       <c r="V3" t="n">
-        <v>710.3867424911898</v>
+        <v>590.7017942686721</v>
       </c>
       <c r="W3" t="n">
-        <v>466.9379658470897</v>
+        <v>590.7017942686721</v>
       </c>
       <c r="X3" t="n">
-        <v>466.9379658470897</v>
+        <v>590.7017942686721</v>
       </c>
       <c r="Y3" t="n">
-        <v>466.9379658470897</v>
+        <v>382.9414955037181</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.9257720901863</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C5" t="n">
-        <v>752.9257720901863</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>752.9257720901863</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y5" t="n">
-        <v>752.9257720901863</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4655,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,22 +4673,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W6" t="n">
-        <v>259.0600686093459</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4744,28 +4746,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
         <v>41.77557929797318</v>
@@ -4784,13 +4786,13 @@
         <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3473184075753</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>494.3473184075753</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4844,10 +4846,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>718.9877272387197</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C9" t="n">
-        <v>544.5346979575927</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D9" t="n">
-        <v>395.6002882963414</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E9" t="n">
-        <v>395.6002882963414</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>954.1398354704625</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>954.1398354704625</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>954.1398354704625</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>954.1398354704625</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>718.9877272387197</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>718.9877272387197</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X9" t="n">
-        <v>718.9877272387197</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="Y9" t="n">
-        <v>718.9877272387197</v>
+        <v>328.2071404297052</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>928.3704397291879</v>
+        <v>791.3670195507573</v>
       </c>
       <c r="C11" t="n">
-        <v>928.3704397291879</v>
+        <v>422.4045026103456</v>
       </c>
       <c r="D11" t="n">
-        <v>928.3704397291879</v>
+        <v>422.4045026103456</v>
       </c>
       <c r="E11" t="n">
-        <v>542.5821871309436</v>
+        <v>422.4045026103456</v>
       </c>
       <c r="F11" t="n">
-        <v>542.5821871309436</v>
+        <v>422.4045026103456</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>422.4045026103456</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>92.05589328438685</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5042,10 +5044,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.411982645667</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V11" t="n">
-        <v>1282.349095302096</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="W11" t="n">
-        <v>929.5804400319823</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="X11" t="n">
-        <v>928.3704397291879</v>
+        <v>1568.106191590691</v>
       </c>
       <c r="Y11" t="n">
-        <v>928.3704397291879</v>
+        <v>1177.966859614879</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>839.9448105435223</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>665.4917812623953</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
         <v>665.4917812623953</v>
@@ -5130,10 +5132,10 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P12" t="n">
         <v>2193.291384540003</v>
@@ -5142,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y12" t="n">
-        <v>839.9448105435223</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="13">
@@ -5218,25 +5220,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T13" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U13" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V13" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W13" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
         <v>46.89499644164432</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1041.491250111708</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
-        <v>1041.491250111708</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D14" t="n">
-        <v>1041.491250111708</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.491250111708</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>630.5053453221001</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5279,13 +5281,13 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
         <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5300,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>2191.696180412721</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>1818.230422151641</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>1428.091090175829</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="15">
@@ -5358,34 +5360,34 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U15" t="n">
         <v>2062.095821155272</v>
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5467,19 +5469,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164432</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9753497950908</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="18">
@@ -5580,13 +5582,13 @@
         <v>139.5078710072816</v>
       </c>
       <c r="F18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5595,22 +5597,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L18" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5674,7 +5676,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5695,28 +5697,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V19" t="n">
-        <v>353.0840852304234</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W19" t="n">
-        <v>353.0840852304234</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="X19" t="n">
-        <v>125.0945343324061</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108907</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>542.5821871309436</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="C20" t="n">
-        <v>542.5821871309436</v>
+        <v>1121.297556972598</v>
       </c>
       <c r="D20" t="n">
-        <v>542.5821871309436</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E20" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F20" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5783,19 +5785,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>1863.725832174089</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>1863.725832174089</v>
       </c>
       <c r="W20" t="n">
-        <v>929.5804400319823</v>
+        <v>1863.725832174089</v>
       </c>
       <c r="X20" t="n">
-        <v>556.1146817709025</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="Y20" t="n">
-        <v>542.5821871309436</v>
+        <v>1490.260073913009</v>
       </c>
     </row>
     <row r="21">
@@ -5811,16 +5813,16 @@
         <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>447.6797356739884</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>447.6797356739884</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F21" t="n">
-        <v>301.1451777008733</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G21" t="n">
-        <v>163.0702918335654</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
         <v>114.6107419524668</v>
@@ -5832,13 +5834,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
         <v>1486.172378671464</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.36185250133229</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="C22" t="n">
-        <v>90.36185250133229</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="D22" t="n">
-        <v>90.36185250133229</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="E22" t="n">
-        <v>90.36185250133229</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="F22" t="n">
-        <v>90.36185250133229</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="G22" t="n">
-        <v>90.36185250133229</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="W22" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="X22" t="n">
-        <v>90.36185250133229</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.36185250133229</v>
+        <v>2138.758986819787</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1159.911464587051</v>
+        <v>570.4992764117354</v>
       </c>
       <c r="C23" t="n">
-        <v>790.948947646639</v>
+        <v>570.4992764117354</v>
       </c>
       <c r="D23" t="n">
-        <v>432.6832490398886</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6011,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>1700.007103721783</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>1700.007103721783</v>
       </c>
       <c r="W23" t="n">
-        <v>2310.116394888064</v>
+        <v>1347.238448451669</v>
       </c>
       <c r="X23" t="n">
-        <v>1936.650636626984</v>
+        <v>1347.238448451669</v>
       </c>
       <c r="Y23" t="n">
-        <v>1546.511304651172</v>
+        <v>957.0991164758573</v>
       </c>
     </row>
     <row r="24">
@@ -6090,13 +6092,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2261.638519101242</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T24" t="n">
-        <v>2062.095821155272</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U24" t="n">
         <v>2062.095821155272</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
         <v>46.89499644164432</v>
@@ -6148,7 +6150,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
         <v>194.9121237200978</v>
@@ -6184,13 +6186,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X25" t="n">
-        <v>607.7685734363102</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y25" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1660.918279468531</v>
+        <v>1008.393317206789</v>
       </c>
       <c r="C26" t="n">
-        <v>1291.95576252812</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D26" t="n">
-        <v>1291.95576252812</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E26" t="n">
-        <v>906.1675099298755</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F26" t="n">
-        <v>495.1816051402679</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G26" t="n">
-        <v>76.90983762315273</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6227,13 +6229,13 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
         <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6254,22 +6256,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V26" t="n">
-        <v>2013.686934738646</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W26" t="n">
-        <v>1660.918279468531</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X26" t="n">
-        <v>1660.918279468531</v>
+        <v>1398.532649182601</v>
       </c>
       <c r="Y26" t="n">
-        <v>1660.918279468531</v>
+        <v>1008.393317206789</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>676.0544483625931</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>501.6014190814661</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>352.6670094202149</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>193.4295544147594</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
         <v>46.89499644164432</v>
@@ -6306,19 +6308,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373777</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592726</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6333,22 +6335,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>1977.451513658935</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1749.271049313092</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1514.118941081349</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1259.881584353148</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1052.030084147615</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>844.2697853826612</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C28" t="n">
-        <v>2175.813639154309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D28" t="n">
-        <v>2175.813639154309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E28" t="n">
-        <v>2099.904132838951</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F28" t="n">
-        <v>1953.014185341041</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G28" t="n">
         <v>1783.87624508755</v>
@@ -6421,13 +6423,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W28" t="n">
-        <v>2344.749822082216</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X28" t="n">
-        <v>2344.749822082216</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y28" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="29">
@@ -6467,7 +6469,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376119</v>
@@ -6482,7 +6484,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
         <v>2270.376276991246</v>
@@ -6494,16 +6496,16 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645668</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V29" t="n">
-        <v>1285.490174376869</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W29" t="n">
-        <v>932.7215191067553</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X29" t="n">
-        <v>932.7215191067553</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y29" t="n">
         <v>542.5821871309436</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>704.2697763643505</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>529.8167470832235</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D30" t="n">
-        <v>380.8823374219722</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E30" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2205.209539606662</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2005.666841660692</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1777.48637731485</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1542.334269083107</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1288.096912354905</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1080.245412149372</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>872.4851133844186</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>318.5874281822333</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="C31" t="n">
-        <v>318.5874281822333</v>
+        <v>2080.882831997796</v>
       </c>
       <c r="D31" t="n">
-        <v>318.5874281822333</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="E31" t="n">
-        <v>318.5874281822333</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="F31" t="n">
-        <v>318.5874281822333</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>149.4494879287428</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="U31" t="n">
-        <v>318.5874281822333</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="V31" t="n">
-        <v>318.5874281822333</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="W31" t="n">
-        <v>318.5874281822333</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="X31" t="n">
-        <v>318.5874281822333</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="Y31" t="n">
-        <v>318.5874281822333</v>
+        <v>2249.819014925703</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1159.911464587051</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C32" t="n">
-        <v>790.948947646639</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D32" t="n">
-        <v>432.6832490398886</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E32" t="n">
         <v>46.89499644164432</v>
@@ -6698,16 +6700,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U32" t="n">
-        <v>2276.285210094056</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V32" t="n">
-        <v>2276.285210094056</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="W32" t="n">
-        <v>1923.516554823942</v>
+        <v>1924.32814228982</v>
       </c>
       <c r="X32" t="n">
-        <v>1550.050796562862</v>
+        <v>1550.86238402874</v>
       </c>
       <c r="Y32" t="n">
-        <v>1159.911464587051</v>
+        <v>1160.723052052928</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P33" t="n">
         <v>2344.749822082216</v>
@@ -6801,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2338.227766704349</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2176.994211604904</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T33" t="n">
-        <v>1977.451513658935</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U33" t="n">
-        <v>1749.271049313092</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V33" t="n">
-        <v>1514.118941081349</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1259.881584353148</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>1052.030084147615</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>844.2697853826612</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>236.7148120170114</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C34" t="n">
-        <v>236.7148120170114</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D34" t="n">
-        <v>236.7148120170114</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E34" t="n">
-        <v>236.7148120170114</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F34" t="n">
-        <v>236.7148120170114</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>205.8715591182311</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W34" t="n">
-        <v>236.7148120170114</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X34" t="n">
-        <v>236.7148120170114</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="Y34" t="n">
-        <v>236.7148120170114</v>
+        <v>1834.540072901726</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>774.1232119888066</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="C35" t="n">
-        <v>405.1606950483948</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="D35" t="n">
-        <v>46.89499644164432</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>896.5608427038521</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6938,10 +6940,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6962,25 +6964,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2270.376276991246</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2270.376276991246</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>2270.376276991246</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W35" t="n">
-        <v>1924.32814228982</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X35" t="n">
-        <v>1550.86238402874</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="Y35" t="n">
-        <v>1160.723052052928</v>
+        <v>1282.349095302096</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>298.7453260127371</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>298.7453260127371</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
         <v>221.6448824165167</v>
@@ -7020,46 +7022,46 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373777</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
         <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1640.568559592726</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="H37" t="n">
         <v>46.89499644164432</v>
@@ -7096,7 +7098,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
         <v>194.9121237200978</v>
@@ -7114,31 +7116,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S37" t="n">
-        <v>391.0727469424309</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="T37" t="n">
-        <v>391.0727469424309</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="U37" t="n">
-        <v>101.891601688354</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="V37" t="n">
-        <v>101.891601688354</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="W37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="X37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>542.5821871309436</v>
+        <v>1377.970252133248</v>
       </c>
       <c r="C38" t="n">
-        <v>542.5821871309436</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="D38" t="n">
-        <v>542.5821871309436</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="E38" t="n">
-        <v>542.5821871309436</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F38" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G38" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H38" t="n">
         <v>212.2335778049849</v>
@@ -7172,13 +7174,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7199,25 +7201,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319823</v>
+        <v>2138.03585045845</v>
       </c>
       <c r="X38" t="n">
-        <v>556.1146817709025</v>
+        <v>1764.57009219737</v>
       </c>
       <c r="Y38" t="n">
-        <v>542.5821871309436</v>
+        <v>1764.57009219737</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>917.728611972203</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>743.275582691076</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>594.3411730298247</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>435.1037180243692</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>288.5691600512542</v>
       </c>
       <c r="G39" t="n">
         <v>221.6448824165167</v>
@@ -7254,22 +7256,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7281,22 +7283,22 @@
         <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>2183.516266982771</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1501.555747962758</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1293.704247757225</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>1085.943948992271</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2344.749822082216</v>
+        <v>132.2915060868933</v>
       </c>
       <c r="C40" t="n">
-        <v>2175.813639154309</v>
+        <v>132.2915060868933</v>
       </c>
       <c r="D40" t="n">
-        <v>2025.696999741974</v>
+        <v>132.2915060868933</v>
       </c>
       <c r="E40" t="n">
-        <v>1877.783906159581</v>
+        <v>132.2915060868933</v>
       </c>
       <c r="F40" t="n">
-        <v>1783.87624508755</v>
+        <v>132.2915060868933</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.87624508755</v>
+        <v>132.2915060868933</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W40" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X40" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="Y40" t="n">
-        <v>2344.749822082216</v>
+        <v>132.2915060868933</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1322.530608860963</v>
+        <v>801.6457659803002</v>
       </c>
       <c r="C41" t="n">
-        <v>953.5680919205511</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="D41" t="n">
-        <v>953.5680919205511</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E41" t="n">
-        <v>953.5680919205511</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L41" t="n">
         <v>762.5916738244546</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2310.557790550112</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2127.362677688088</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>1907.379918319666</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U41" t="n">
-        <v>1653.593496204533</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V41" t="n">
-        <v>1322.530608860963</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W41" t="n">
-        <v>1322.530608860963</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X41" t="n">
-        <v>1322.530608860963</v>
+        <v>801.6457659803002</v>
       </c>
       <c r="Y41" t="n">
-        <v>1322.530608860963</v>
+        <v>801.6457659803002</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7497,10 +7499,10 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
         <v>1887.88481026779</v>
@@ -7518,22 +7520,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1894.892063851584</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1659.739955619841</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>215.8311793695513</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.479644199791</v>
+        <v>1952.812428015457</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1310.441992089288</v>
+        <v>1164.47789022513</v>
       </c>
       <c r="C44" t="n">
-        <v>941.4794751488764</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D44" t="n">
-        <v>941.4794751488764</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E44" t="n">
-        <v>941.4794751488764</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F44" t="n">
-        <v>530.4935703592689</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G44" t="n">
-        <v>112.2218028421537</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H44" t="n">
         <v>46.89499644164432</v>
@@ -7676,22 +7678,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U44" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V44" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W44" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X44" t="n">
-        <v>2087.181164129222</v>
+        <v>1493.73264649972</v>
       </c>
       <c r="Y44" t="n">
-        <v>1697.04183215341</v>
+        <v>1164.47789022513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>732.9106700794722</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>558.4576407983452</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>558.4576407983452</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7755,22 +7757,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="G46" t="n">
         <v>1783.87624508755</v>
@@ -7828,28 +7830,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R46" t="n">
-        <v>2190.391887156797</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S46" t="n">
-        <v>1973.696060662917</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="T46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="X46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="Y46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5053919605859</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9245,10 @@
         <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L18" t="n">
-        <v>367.8729277488642</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,7 +9719,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>261.4978194579836</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>154.2790145108655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>237.9065809724246</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11145,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.9759076753921</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>368.5332003787025</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>49.10074148265551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>182.3535855893494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>271.3476731046736</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23707,13 +23709,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>17.5474909134079</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>264.8442918435686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23820,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>120.4210546291172</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -23829,7 +23831,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>68.81683489879175</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23947,16 +23949,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.1671108402407</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>247.8107110331377</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>372.8407689624942</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>81.31564129514278</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>57.98884467712185</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24142,13 +24144,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>114.3546095507298</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>203.986714032347</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,7 +24226,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>85.72916986535466</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>314.9538757952022</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>77.34102959728553</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5385893591337378</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,10 +24381,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>175.5524658530037</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>154.5237272881576</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>297.3304304630058</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24531,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
@@ -24540,7 +24542,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>53.38246657340289</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>71.28355139436415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5524658530034</v>
       </c>
     </row>
     <row r="29">
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.109668284024622</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>372.8407689624942</v>
       </c>
     </row>
     <row r="30">
@@ -24768,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.47633989765106</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>55.85785047759339</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24892,10 +24894,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>198.7305613759264</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
@@ -24971,10 +24973,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>183.4685920257028</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>260.7757641930752</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25008,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.38246657340287</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>105.6924183331604</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>129.6747906459034</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>136.9117404811631</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25117,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>306.8410310167689</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.653315363001639</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25239,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>60.36469784837671</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>105.6924183331603</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>82.84467881458389</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>232.0763591423484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>218.2239464499456</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>372.8407689624942</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>70.43910215024474</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25521,13 +25523,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>52.45246356162097</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>72.8442525010244</v>
       </c>
       <c r="I40" t="n">
         <v>139.0783256288915</v>
@@ -25606,7 +25608,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>39.77969842327769</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>243.0757733673037</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>11.90120006817369</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>165.5317197306518</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>123.8907512989397</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.39861340794073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>262.3715848961948</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>60.27572994420939</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>109.6701260731132</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25959,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25995,13 +25997,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>165.5317197306518</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26029,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26068,13 +26070,13 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>37.69782020388175</v>
+        <v>198.7639881252413</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656130.9199272458</v>
+        <v>656130.9199272459</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>656130.9199272461</v>
+        <v>656130.9199272459</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>656130.9199272459</v>
+        <v>656130.9199272462</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656130.9199272458</v>
+        <v>656130.9199272461</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656130.9199272462</v>
+        <v>656130.9199272461</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656130.9199272462</v>
+        <v>656130.9199272459</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656130.9199272461</v>
+        <v>656130.9199272459</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656130.9199272459</v>
+        <v>656130.9199272461</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26316,10 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>330470.1247052692</v>
@@ -26329,7 +26331,7 @@
         <v>330470.1247052692</v>
       </c>
       <c r="H2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="I2" t="n">
         <v>330470.1247052692</v>
@@ -26344,16 +26346,16 @@
         <v>330470.1247052691</v>
       </c>
       <c r="M2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="N2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052689</v>
       </c>
       <c r="O2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="P2" t="n">
-        <v>330470.1247052693</v>
+        <v>330470.1247052695</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007605</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,28 +26426,28 @@
         <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="F4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="G4" t="n">
         <v>61729.84584348262</v>
       </c>
       <c r="H4" t="n">
+        <v>61729.84584348262</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61729.84584348262</v>
+      </c>
+      <c r="J4" t="n">
+        <v>61729.84584348262</v>
+      </c>
+      <c r="K4" t="n">
         <v>61729.84584348263</v>
       </c>
-      <c r="I4" t="n">
-        <v>61729.84584348263</v>
-      </c>
-      <c r="J4" t="n">
-        <v>61729.84584348263</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>61729.84584348262</v>
-      </c>
-      <c r="L4" t="n">
-        <v>61729.84584348263</v>
       </c>
       <c r="M4" t="n">
         <v>61729.84584348263</v>
@@ -26522,13 +26524,13 @@
         <v>46402.29573623517</v>
       </c>
       <c r="C6" t="n">
-        <v>127171.727267783</v>
+        <v>127171.7272677829</v>
       </c>
       <c r="D6" t="n">
-        <v>127171.7272677827</v>
+        <v>127171.7272677829</v>
       </c>
       <c r="E6" t="n">
-        <v>-119093.7860426127</v>
+        <v>-119093.7860426126</v>
       </c>
       <c r="F6" t="n">
         <v>226518.55673634</v>
@@ -26537,7 +26539,7 @@
         <v>226518.55673634</v>
       </c>
       <c r="H6" t="n">
-        <v>226518.5567363399</v>
+        <v>226518.55673634</v>
       </c>
       <c r="I6" t="n">
         <v>226518.55673634</v>
@@ -26555,13 +26557,13 @@
         <v>140500.022916264</v>
       </c>
       <c r="N6" t="n">
-        <v>226518.55673634</v>
+        <v>226518.5567363398</v>
       </c>
       <c r="O6" t="n">
-        <v>226518.55673634</v>
+        <v>226518.5567363399</v>
       </c>
       <c r="P6" t="n">
-        <v>226518.5567363402</v>
+        <v>226518.5567363403</v>
       </c>
     </row>
   </sheetData>
@@ -26747,28 +26749,28 @@
         <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
         <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="K3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="M3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
         <v>301.9048087062787</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>221.8426869680169</v>
       </c>
       <c r="G2" t="n">
-        <v>197.0482019127778</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27430,22 +27432,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,19 +27514,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>207.6082603411481</v>
+        <v>89.12016160085557</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.63594515755861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>360.0759440624245</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>332.8415398760416</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>174.07454473664</v>
+        <v>44.58217180160733</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>175.6055225771058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.829220844304</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>140.6752909808566</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.349311205859</v>
       </c>
       <c r="F8" t="n">
+        <v>165.8617568640524</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.33968731287111</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27989,13 +27991,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>89.1367644074958</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>38.23792762219048</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31993,7 +31995,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32014,22 +32016,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32084,25 +32086,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32232,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32251,22 +32253,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32321,25 +32323,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L19" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T19" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32725,22 +32727,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32795,25 +32797,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H25" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L25" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N25" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T25" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32943,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
@@ -32962,22 +32964,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S26" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I27" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
@@ -33032,25 +33034,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N27" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P27" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R27" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S27" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T27" t="n">
         <v>2.617457728311981</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H28" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L28" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N28" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R28" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T28" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33180,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I29" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J29" t="n">
         <v>103.0102241525006</v>
@@ -33199,22 +33201,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P29" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R29" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S29" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T29" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H30" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I30" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J30" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K30" t="n">
         <v>104.8606541711232</v>
@@ -33269,25 +33271,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M30" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P30" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R30" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S30" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T30" t="n">
         <v>2.617457728311981</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H31" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I31" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J31" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K31" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L31" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M31" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N31" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O31" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P31" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R31" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T31" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33417,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I32" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J32" t="n">
         <v>103.0102241525006</v>
@@ -33436,22 +33438,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P32" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R32" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S32" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T32" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H33" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I33" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J33" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K33" t="n">
         <v>104.8606541711232</v>
@@ -33506,25 +33508,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M33" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N33" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O33" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P33" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R33" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S33" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T33" t="n">
         <v>2.617457728311981</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H34" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I34" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J34" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K34" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L34" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M34" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N34" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O34" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P34" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R34" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S34" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T34" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33654,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
@@ -33673,22 +33675,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P35" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S35" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I36" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J36" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
@@ -33743,25 +33745,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N36" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O36" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P36" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R36" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S36" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T36" t="n">
         <v>2.617457728311981</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H37" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I37" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L37" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N37" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R37" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T37" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9091475161414</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,13 +35500,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q12" t="n">
         <v>152.98832074971</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35659,13 +35661,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35738,13 +35740,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35896,13 +35898,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093429</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L18" t="n">
-        <v>370.3166381105403</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -35975,13 +35977,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36209,7 +36211,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255823</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36370,13 +36372,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36449,7 +36451,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
@@ -36516,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M26" t="n">
         <v>432.2802359107712</v>
@@ -36607,13 +36609,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36686,10 +36688,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M28" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N28" t="n">
         <v>127.4430518046842</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K29" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L29" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M29" t="n">
         <v>432.2802359107712</v>
@@ -36844,13 +36846,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P29" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q29" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -36923,13 +36925,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L31" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M31" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N31" t="n">
         <v>127.4430518046842</v>
@@ -37005,7 +37007,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K32" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L32" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M32" t="n">
         <v>432.2802359107712</v>
@@ -37081,13 +37083,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P32" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q32" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37160,10 +37162,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L34" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M34" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N34" t="n">
         <v>127.4430518046842</v>
@@ -37242,7 +37244,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P34" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L35" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M35" t="n">
         <v>432.2802359107712</v>
@@ -37318,13 +37320,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P35" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37397,13 +37399,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>249.8143946212773</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L37" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M37" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N37" t="n">
         <v>127.4430518046842</v>
@@ -37479,7 +37481,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>355.1946887874306</v>
       </c>
       <c r="P38" t="n">
-        <v>265.0955169306801</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
         <v>121.0739155037674</v>
@@ -37622,7 +37624,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37631,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255823</v>
@@ -37640,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.4238170675625</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37865,13 +37867,13 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1259927.632843702</v>
+        <v>1218103.851174695</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.110075576</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>185.0333587736945</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.517878747342</v>
       </c>
       <c r="U3" t="n">
-        <v>136.8212204801193</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>82.46119763909351</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.1908134018701</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5810588664028</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1223,13 +1223,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>116.6362207959817</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>44.7092878743151</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -1426,19 +1426,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>13.39716969355935</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>46.42671957066512</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>176.8310480250585</v>
       </c>
       <c r="T13" t="n">
-        <v>147.3472002825671</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>52.8934935707792</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.2207054539201</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>89.14352724124579</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>222.3216418951197</v>
       </c>
     </row>
     <row r="18">
@@ -1934,10 +1934,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1979,7 +1979,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>95.66135751783807</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>77.61712774777742</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>20.67479632098556</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>106.1911465190233</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>3.437846860843506</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>76.32943916025816</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>59.15194878046334</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>10.54215419659351</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>208.8894851414632</v>
       </c>
       <c r="U23" t="n">
-        <v>165.5193880286265</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U24" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>62.56525216889501</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>50.15718953603344</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>210.74916448285</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>37.86712924019691</v>
       </c>
     </row>
     <row r="27">
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>116.3028117692288</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.39716969355935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>31.00171867547457</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>53.40708194790164</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>220.5714592751357</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>96.43746345926786</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>66.97649427705969</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>120.206241369224</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.15718953603389</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>105.9853629698415</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>100.0350147249426</v>
+        <v>388.9701345428937</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V36" t="n">
-        <v>127.1081688162649</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.44478427352789</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>74.54211823523698</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>133.8451390691039</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>131.0170222674674</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>66.25503485839013</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>75.44539359275802</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>84.54254454879647</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>20.47505656865777</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>126.6553273111653</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>202.7420998035269</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>160.807298920142</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>56.3131767140669</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.2952820371726</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>162.3985825025964</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>181.5413674712129</v>
       </c>
       <c r="Y44" t="n">
-        <v>325.9622087118442</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>67.26886741877343</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>85.01043530101144</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>26.85544949825411</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.9414955037181</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C3" t="n">
-        <v>382.9414955037181</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D3" t="n">
-        <v>382.9414955037181</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="U3" t="n">
-        <v>825.8539025004147</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="V3" t="n">
-        <v>590.7017942686721</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="W3" t="n">
-        <v>590.7017942686721</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="X3" t="n">
-        <v>590.7017942686721</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="Y3" t="n">
-        <v>382.9414955037181</v>
+        <v>489.9572726784918</v>
       </c>
     </row>
     <row r="4">
@@ -4506,31 +4506,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.0940480307835</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>358.0940480307835</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>358.0940480307835</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>358.0940480307835</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F5" t="n">
-        <v>114.6452713866835</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>358.0940480307835</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>182.1001465464452</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>901.2946886937524</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>502.8591282797204</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4849,7 +4849,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>328.2071404297052</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C9" t="n">
-        <v>328.2071404297052</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4889,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>446.0215048700907</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>328.2071404297052</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>328.2071404297052</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>791.3670195507573</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="C11" t="n">
-        <v>422.4045026103456</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="D11" t="n">
-        <v>422.4045026103456</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E11" t="n">
-        <v>422.4045026103456</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F11" t="n">
-        <v>422.4045026103456</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G11" t="n">
-        <v>422.4045026103456</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
-        <v>92.05589328438685</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5044,10 +5044,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U11" t="n">
-        <v>1941.571949851771</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V11" t="n">
-        <v>1941.571949851771</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W11" t="n">
-        <v>1941.571949851771</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X11" t="n">
-        <v>1568.106191590691</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y11" t="n">
-        <v>1177.966859614879</v>
+        <v>542.5821871309436</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>829.9842651606482</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>655.5312358795212</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>506.5968262182699</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>347.3593712128144</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>200.8248132396994</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>998.1996021807163</v>
       </c>
     </row>
     <row r="13">
@@ -5202,7 +5202,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5220,13 +5220,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826212</v>
+        <v>274.7934182835589</v>
       </c>
       <c r="T13" t="n">
         <v>46.89499644164432</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5281,10 +5281,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2186.951129704519</v>
       </c>
       <c r="T15" t="n">
-        <v>2284.306083296871</v>
+        <v>1987.40843175855</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5469,19 +5469,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>228.543461271884</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>228.543461271884</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>228.543461271884</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2344.749822082216</v>
+        <v>1121.297556972598</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>1121.297556972598</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L17" t="n">
         <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>1345.864872018173</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>1121.297556972598</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E18" t="n">
-        <v>139.5078710072816</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F18" t="n">
-        <v>46.89499644164432</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G18" t="n">
         <v>46.89499644164432</v>
@@ -5597,49 +5597,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>453.4106385108907</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C19" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5676,7 +5676,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5700,25 +5700,25 @@
         <v>453.4106385108907</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="U19" t="n">
-        <v>453.4106385108907</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="V19" t="n">
-        <v>453.4106385108907</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="W19" t="n">
-        <v>453.4106385108907</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="X19" t="n">
-        <v>453.4106385108907</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="Y19" t="n">
-        <v>453.4106385108907</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1490.260073913009</v>
+        <v>1738.167222649673</v>
       </c>
       <c r="C20" t="n">
-        <v>1121.297556972598</v>
+        <v>1369.204705709261</v>
       </c>
       <c r="D20" t="n">
-        <v>763.0318583658473</v>
+        <v>1369.204705709261</v>
       </c>
       <c r="E20" t="n">
-        <v>377.243605767603</v>
+        <v>983.4164531110168</v>
       </c>
       <c r="F20" t="n">
-        <v>377.243605767603</v>
+        <v>572.4305483214093</v>
       </c>
       <c r="G20" t="n">
-        <v>377.243605767603</v>
+        <v>154.1587808042942</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5755,10 +5755,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U20" t="n">
-        <v>1863.725832174089</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V20" t="n">
-        <v>1863.725832174089</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W20" t="n">
-        <v>1863.725832174089</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X20" t="n">
-        <v>1490.260073913009</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="Y20" t="n">
-        <v>1490.260073913009</v>
+        <v>2124.767062713795</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551154</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739884</v>
+        <v>647.2224336199578</v>
       </c>
       <c r="D21" t="n">
-        <v>298.7453260127371</v>
+        <v>498.2880239587065</v>
       </c>
       <c r="E21" t="n">
-        <v>221.6448824165167</v>
+        <v>498.2880239587065</v>
       </c>
       <c r="F21" t="n">
-        <v>221.6448824165167</v>
+        <v>351.7534659855914</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>213.6785801182835</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>106.6444396542336</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L21" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5861,22 +5861,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751835</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2149.407627422406</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>2138.758986819787</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>2138.758986819787</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>2138.758986819787</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V22" t="n">
-        <v>2138.758986819787</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>570.4992764117354</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="C23" t="n">
-        <v>570.4992764117354</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2335778049849</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E23" t="n">
-        <v>212.2335778049849</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F23" t="n">
-        <v>212.2335778049849</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.1984047608</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="U23" t="n">
-        <v>1700.007103721783</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="V23" t="n">
-        <v>1700.007103721783</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="W23" t="n">
-        <v>1347.238448451669</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="X23" t="n">
-        <v>1347.238448451669</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="Y23" t="n">
-        <v>957.0991164758573</v>
+        <v>1950.55522927932</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6095,25 +6095,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2284.306083296871</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>279.2301611081601</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>110.0922208546696</v>
       </c>
       <c r="H25" t="n">
         <v>46.89499644164432</v>
@@ -6186,13 +6186,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>318.3514033993496</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X25" t="n">
-        <v>267.6875755851744</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1008.393317206789</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="C26" t="n">
-        <v>795.5153732847182</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="D26" t="n">
-        <v>795.5153732847182</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="E26" t="n">
-        <v>795.5153732847182</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F26" t="n">
-        <v>795.5153732847182</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G26" t="n">
         <v>377.243605767603</v>
@@ -6229,10 +6229,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2124.767062713795</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>2124.767062713795</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V26" t="n">
-        <v>2124.767062713795</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W26" t="n">
-        <v>1771.99840744368</v>
+        <v>1586.544734377561</v>
       </c>
       <c r="X26" t="n">
-        <v>1398.532649182601</v>
+        <v>1213.078976116481</v>
       </c>
       <c r="Y26" t="n">
-        <v>1008.393317206789</v>
+        <v>1174.829350621332</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W28" t="n">
-        <v>2055.332652045256</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>1827.343101147238</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>542.5821871309436</v>
+        <v>1522.74358883188</v>
       </c>
       <c r="C29" t="n">
-        <v>542.5821871309436</v>
+        <v>1153.781071891469</v>
       </c>
       <c r="D29" t="n">
-        <v>542.5821871309436</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E29" t="n">
-        <v>542.5821871309436</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F29" t="n">
-        <v>542.5821871309436</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L29" t="n">
         <v>762.5916738244551</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645667</v>
+        <v>2227.272234436531</v>
       </c>
       <c r="V29" t="n">
-        <v>1282.349095302096</v>
+        <v>1896.20934709296</v>
       </c>
       <c r="W29" t="n">
-        <v>929.5804400319823</v>
+        <v>1896.20934709296</v>
       </c>
       <c r="X29" t="n">
-        <v>556.1146817709025</v>
+        <v>1522.74358883188</v>
       </c>
       <c r="Y29" t="n">
-        <v>542.5821871309436</v>
+        <v>1522.74358883188</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>882.1192016864297</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>707.6661724053027</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>558.7317627440515</v>
       </c>
       <c r="E30" t="n">
-        <v>139.5078710072816</v>
+        <v>399.494307738596</v>
       </c>
       <c r="F30" t="n">
-        <v>46.89499644164432</v>
+        <v>252.959749765481</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6566,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1258.094837471452</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>1050.334538706498</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2249.819014925703</v>
+        <v>384.9691196230418</v>
       </c>
       <c r="C31" t="n">
-        <v>2080.882831997796</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D31" t="n">
-        <v>1930.76619258546</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E31" t="n">
-        <v>1930.76619258546</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>2249.819014925703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>2249.819014925703</v>
+        <v>384.9691196230418</v>
       </c>
       <c r="X31" t="n">
-        <v>2249.819014925703</v>
+        <v>384.9691196230418</v>
       </c>
       <c r="Y31" t="n">
-        <v>2249.819014925703</v>
+        <v>384.9691196230418</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>774.1232119888066</v>
+        <v>1053.699108261765</v>
       </c>
       <c r="C32" t="n">
-        <v>405.1606950483948</v>
+        <v>1053.699108261765</v>
       </c>
       <c r="D32" t="n">
-        <v>46.89499644164432</v>
+        <v>695.4334096550149</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164432</v>
+        <v>309.6451570567706</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>309.6451570567706</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>309.6451570567706</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082217</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082217</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V32" t="n">
-        <v>2277.096797559934</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="W32" t="n">
-        <v>1924.32814228982</v>
+        <v>1443.838440237577</v>
       </c>
       <c r="X32" t="n">
-        <v>1550.86238402874</v>
+        <v>1443.838440237577</v>
       </c>
       <c r="Y32" t="n">
-        <v>1160.723052052928</v>
+        <v>1053.699108261765</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6782,19 +6782,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
         <v>2344.749822082216</v>
@@ -6803,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1783.87624508755</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="C34" t="n">
-        <v>1783.87624508755</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="D34" t="n">
-        <v>1783.87624508755</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="E34" t="n">
-        <v>1783.87624508755</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="F34" t="n">
-        <v>1783.87624508755</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.87624508755</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="H34" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M34" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N34" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O34" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S34" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T34" t="n">
-        <v>2344.749822082216</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="U34" t="n">
-        <v>2344.749822082216</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="V34" t="n">
-        <v>2344.749822082216</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="W34" t="n">
-        <v>2055.332652045256</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="X34" t="n">
-        <v>2055.332652045256</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="Y34" t="n">
-        <v>1834.540072901726</v>
+        <v>346.3547163191317</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1282.349095302096</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C35" t="n">
-        <v>1282.349095302096</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="D35" t="n">
-        <v>1282.349095302096</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="E35" t="n">
-        <v>896.5608427038521</v>
+        <v>439.7941222425471</v>
       </c>
       <c r="F35" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6937,13 +6937,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X35" t="n">
-        <v>1282.349095302096</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y35" t="n">
-        <v>1282.349095302096</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1955.335802636929</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.1900653661261</v>
+        <v>232.6180593673606</v>
       </c>
       <c r="C37" t="n">
-        <v>122.1900653661261</v>
+        <v>232.6180593673606</v>
       </c>
       <c r="D37" t="n">
-        <v>122.1900653661261</v>
+        <v>232.6180593673606</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1900653661261</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F37" t="n">
-        <v>122.1900653661261</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>122.1900653661261</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
         <v>46.89499644164432</v>
@@ -7116,31 +7116,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>566.78431370192</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S37" t="n">
-        <v>350.0884872080407</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T37" t="n">
-        <v>122.1900653661261</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U37" t="n">
-        <v>122.1900653661261</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V37" t="n">
-        <v>122.1900653661261</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W37" t="n">
-        <v>122.1900653661261</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="X37" t="n">
-        <v>122.1900653661261</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.1900653661261</v>
+        <v>232.6180593673606</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1377.970252133248</v>
+        <v>1011.349778919179</v>
       </c>
       <c r="C38" t="n">
-        <v>1009.007735192837</v>
+        <v>1011.349778919179</v>
       </c>
       <c r="D38" t="n">
-        <v>1009.007735192837</v>
+        <v>1011.349778919179</v>
       </c>
       <c r="E38" t="n">
-        <v>623.2194825945925</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2335778049849</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T38" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U38" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="V38" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="W38" t="n">
-        <v>2138.03585045845</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="X38" t="n">
-        <v>1764.57009219737</v>
+        <v>1788.088950959112</v>
       </c>
       <c r="Y38" t="n">
-        <v>1764.57009219737</v>
+        <v>1397.949618983301</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>917.728611972203</v>
+        <v>890.3368025054142</v>
       </c>
       <c r="C39" t="n">
-        <v>743.275582691076</v>
+        <v>715.8837732242872</v>
       </c>
       <c r="D39" t="n">
-        <v>594.3411730298247</v>
+        <v>566.9493635630359</v>
       </c>
       <c r="E39" t="n">
-        <v>435.1037180243692</v>
+        <v>407.7119085575804</v>
       </c>
       <c r="F39" t="n">
-        <v>288.5691600512542</v>
+        <v>261.1773505844654</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>123.1024647171575</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7265,13 +7265,13 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7289,16 +7289,16 @@
         <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1755.793104690959</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W39" t="n">
-        <v>1501.555747962758</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X39" t="n">
-        <v>1293.704247757225</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y39" t="n">
-        <v>1085.943948992271</v>
+        <v>1058.552139525482</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.2915060868933</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C40" t="n">
-        <v>132.2915060868933</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D40" t="n">
-        <v>132.2915060868933</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E40" t="n">
-        <v>132.2915060868933</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F40" t="n">
-        <v>132.2915060868933</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G40" t="n">
-        <v>132.2915060868933</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
         <v>46.89499644164432</v>
@@ -7356,28 +7356,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="V40" t="n">
-        <v>353.0840852304234</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="W40" t="n">
-        <v>353.0840852304234</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="X40" t="n">
-        <v>353.0840852304234</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y40" t="n">
-        <v>132.2915060868933</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>801.6457659803002</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C41" t="n">
-        <v>432.6832490398886</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D41" t="n">
         <v>432.6832490398886</v>
@@ -7411,13 +7411,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376118</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V41" t="n">
-        <v>1282.349095302096</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W41" t="n">
-        <v>929.5804400319823</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X41" t="n">
-        <v>801.6457659803002</v>
+        <v>1751.301304452715</v>
       </c>
       <c r="Y41" t="n">
-        <v>801.6457659803002</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C42" t="n">
-        <v>459.7011498842648</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D42" t="n">
-        <v>459.7011498842648</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="E42" t="n">
-        <v>300.4636948788093</v>
+        <v>348.8860194538779</v>
       </c>
       <c r="F42" t="n">
-        <v>153.9291369056942</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G42" t="n">
         <v>153.9291369056942</v>
@@ -7490,52 +7490,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1952.812428015457</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C43" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="T43" t="n">
-        <v>2116.851400240302</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="U43" t="n">
-        <v>1952.812428015457</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="V43" t="n">
-        <v>1952.812428015457</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="W43" t="n">
-        <v>1952.812428015457</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X43" t="n">
-        <v>1952.812428015457</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y43" t="n">
-        <v>1952.812428015457</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1164.47789022513</v>
+        <v>981.485181201343</v>
       </c>
       <c r="C44" t="n">
-        <v>795.5153732847182</v>
+        <v>981.485181201343</v>
       </c>
       <c r="D44" t="n">
-        <v>795.5153732847182</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="E44" t="n">
-        <v>795.5153732847182</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F44" t="n">
-        <v>795.5153732847182</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G44" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.1984047608</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.1984047608</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="W44" t="n">
-        <v>1867.1984047608</v>
+        <v>1554.999631834946</v>
       </c>
       <c r="X44" t="n">
-        <v>1493.73264649972</v>
+        <v>1371.624513177155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1164.47789022513</v>
+        <v>981.485181201343</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7730,22 +7730,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7757,22 +7757,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1894.892063851584</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2100.927278923434</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C46" t="n">
-        <v>2100.927278923434</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D46" t="n">
-        <v>2100.927278923434</v>
+        <v>521.899446869632</v>
       </c>
       <c r="E46" t="n">
-        <v>1953.014185341041</v>
+        <v>521.899446869632</v>
       </c>
       <c r="F46" t="n">
-        <v>1953.014185341041</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2128.053995588337</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2100.927278923434</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>2100.927278923434</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>2100.927278923434</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W46" t="n">
-        <v>2100.927278923434</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X46" t="n">
-        <v>2100.927278923434</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y46" t="n">
-        <v>2100.927278923434</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8546,7 +8546,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>101.9014378473433</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90390621998491</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>108.5094987082738</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>57.08896698613911</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>415.7693643006697</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928321</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>108.5094987082737</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.9759076753921</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>372.8407689624942</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>90.26741743796975</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>37.69782020388197</v>
       </c>
       <c r="T13" t="n">
-        <v>78.27223734092829</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>329.0368765014826</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>3.400514094530109</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23709,10 +23709,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>162.9941160825822</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>163.9162967609339</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>68.81683489879175</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23949,7 +23949,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>231.4628470028424</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.8539767136758</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>247.8107110331377</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24056,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>81.31564129514278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.8866392752509</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24144,13 +24144,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>203.986714032347</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>8.893446633274294</v>
       </c>
       <c r="U23" t="n">
-        <v>85.72916986535466</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U24" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>94.82154488092587</v>
       </c>
       <c r="I25" t="n">
         <v>139.0783256288916</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>175.5524658530037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>154.5237272881576</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>348.3708094158567</v>
       </c>
     </row>
     <row r="27">
@@ -24657,19 +24657,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>175.5524658530034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>134.9457461247524</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>372.8407689624942</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>105.6924183331603</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24897,10 +24897,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>198.7305613759264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>65.95153906145526</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,10 +24934,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>230.6076597734312</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>260.7757641930752</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>105.6924183331604</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.6747906459034</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,10 +25092,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25122,13 +25122,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>119.6340746536539</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>306.8410310167689</v>
+        <v>17.90591119881771</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V36" t="n">
-        <v>105.6924183331603</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>107.9891783730413</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>82.84467881458389</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>248.0852310031579</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>218.2239464499456</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>70.43910215024474</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>30.5184054666514</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.8442525010244</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
         <v>139.0783256288915</v>
@@ -25596,10 +25596,10 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.6194376234954</v>
@@ -25608,16 +25608,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>205.2345988203794</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>243.0757733673037</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>183.4958388525267</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>11.90120006817369</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>88.75603567931698</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>157.3867970498209</v>
@@ -25833,22 +25833,22 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>51.51907353899273</v>
       </c>
       <c r="S43" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>123.8907512989397</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>188.1897332072561</v>
       </c>
       <c r="Y44" t="n">
-        <v>60.27572994420939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>45.00739118865397</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,13 +25997,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>165.5317197306518</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>63.60503771720091</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26073,10 +26073,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>198.7639881252413</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>656130.9199272459</v>
+        <v>656130.9199272461</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>656130.9199272462</v>
+        <v>656130.9199272458</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656130.9199272461</v>
+        <v>656130.9199272462</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656130.9199272461</v>
+        <v>656130.9199272459</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656130.9199272462</v>
+        <v>656130.9199272459</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656130.9199272459</v>
+        <v>656130.9199272461</v>
       </c>
     </row>
     <row r="14">
@@ -26316,13 +26316,13 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052693</v>
       </c>
       <c r="F2" t="n">
         <v>330470.1247052692</v>
@@ -26334,28 +26334,28 @@
         <v>330470.1247052692</v>
       </c>
       <c r="I2" t="n">
+        <v>330470.1247052694</v>
+      </c>
+      <c r="J2" t="n">
         <v>330470.1247052692</v>
       </c>
-      <c r="J2" t="n">
-        <v>330470.1247052693</v>
-      </c>
       <c r="K2" t="n">
-        <v>330470.1247052693</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="L2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="M2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="N2" t="n">
-        <v>330470.1247052689</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="O2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="P2" t="n">
-        <v>330470.1247052695</v>
+        <v>330470.1247052692</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910617</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26444,13 +26444,13 @@
         <v>61729.84584348262</v>
       </c>
       <c r="K4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="L4" t="n">
         <v>61729.84584348262</v>
       </c>
       <c r="M4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="N4" t="n">
         <v>61729.84584348262</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46402.29573623517</v>
+        <v>46402.29573623511</v>
       </c>
       <c r="C6" t="n">
-        <v>127171.7272677829</v>
+        <v>127171.7272677828</v>
       </c>
       <c r="D6" t="n">
-        <v>127171.7272677829</v>
+        <v>127171.727267783</v>
       </c>
       <c r="E6" t="n">
-        <v>-119093.7860426126</v>
+        <v>-126401.0253010089</v>
       </c>
       <c r="F6" t="n">
-        <v>226518.55673634</v>
+        <v>219211.3174779437</v>
       </c>
       <c r="G6" t="n">
-        <v>226518.55673634</v>
+        <v>219211.3174779437</v>
       </c>
       <c r="H6" t="n">
-        <v>226518.55673634</v>
+        <v>219211.3174779437</v>
       </c>
       <c r="I6" t="n">
-        <v>226518.55673634</v>
+        <v>219211.3174779438</v>
       </c>
       <c r="J6" t="n">
-        <v>163458.6141372339</v>
+        <v>156151.3748788375</v>
       </c>
       <c r="K6" t="n">
-        <v>226518.5567363401</v>
+        <v>219211.3174779437</v>
       </c>
       <c r="L6" t="n">
-        <v>226518.5567363399</v>
+        <v>219211.3174779437</v>
       </c>
       <c r="M6" t="n">
-        <v>140500.022916264</v>
+        <v>133192.7836578677</v>
       </c>
       <c r="N6" t="n">
-        <v>226518.5567363398</v>
+        <v>219211.3174779437</v>
       </c>
       <c r="O6" t="n">
-        <v>226518.5567363399</v>
+        <v>219211.3174779437</v>
       </c>
       <c r="P6" t="n">
-        <v>226518.5567363403</v>
+        <v>219211.3174779437</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
         <v>301.9048087062787</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776588</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>221.8426869680169</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27438,13 +27438,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>2.646849947479609</v>
       </c>
       <c r="U3" t="n">
-        <v>89.12016160085557</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>206.8877105131121</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>332.8415398760416</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>44.58217180160733</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>143.5478536285894</v>
       </c>
     </row>
     <row r="7">
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,16 +27815,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.829220844304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>176.349311205859</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>218.0713248386154</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>104.3983415011523</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,13 +27943,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27994,10 +27994,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>89.1367644074958</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>153.1541244507528</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31758,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31779,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31849,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32016,22 +32016,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32086,25 +32086,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32253,22 +32253,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32323,25 +32323,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35424,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35503,13 +35503,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
-        <v>91.93015837125802</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35661,13 +35661,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35740,13 +35740,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35898,13 +35898,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35977,13 +35977,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36211,7 +36211,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255823</v>
@@ -36220,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36685,7 +36685,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36694,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37165,7 +37165,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37396,16 +37396,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>453.3206074199177</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255823</v>
@@ -37642,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37788,7 +37788,7 @@
         <v>373.423817067563</v>
       </c>
       <c r="M41" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107708</v>
       </c>
       <c r="N41" t="n">
         <v>424.4951865620588</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
@@ -37867,7 +37867,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
@@ -37876,10 +37876,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38037,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38116,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
